--- a/REPOSITORIO_PLANTILLAS_CM/CM 12 - Inmuebles.xlsx
+++ b/REPOSITORIO_PLANTILLAS_CM/CM 12 - Inmuebles.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniminuto0-my.sharepoint.com/personal/cristina_acosta_uniminuto_edu/Documents/MI PC 2024/0. CUADROS MAESTROS ACTUALIZACIÓN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniminuto0.sharepoint.com/sites/CONOCIMIENTOS/Documentos compartidos/VICERRECTORIA ACADÉMICA/5_PROYECTOS_DATA/DESARROLLOS/CUADROS_MAESTROS/REPOSITORIO_PLANTILLAS_CM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_547A7CFBD6BCBFA2949ECB1C2C07EF3868519915" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_547A7CFBD6BCBFA2949ECB1C2C07EF3868519915" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB03192-FCE1-474B-9115-F0EE4176B022}"/>
   <workbookProtection workbookPassword="B129" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21495" yWindow="-14160" windowWidth="21810" windowHeight="12915" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="19" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Century Gothic"/>
@@ -699,33 +699,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="109">
@@ -1311,6 +1311,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1604,11 +1608,11 @@
   <dimension ref="A1:XFC75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
@@ -1618,17 +1622,17 @@
     <col min="16384" max="16384" width="1.75" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1"/>
-    <row r="2" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="3" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="4" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="5" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="6" spans="1:13" ht="18.95" customHeight="1">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" customHeight="1"/>
-    <row r="8" spans="1:13" ht="18.95" customHeight="1">
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -1641,7 +1645,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="18.95" customHeight="1">
+    <row r="9" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1654,48 +1658,48 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="11" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="12" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="13" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="14" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="15" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="16" spans="1:13" ht="18.95" customHeight="1"/>
-    <row r="17" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="18" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="19" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="20" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="21" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="22" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="23" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="24" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="25" spans="2:12" ht="18.95" customHeight="1">
-      <c r="B25" s="40" t="s">
+    <row r="10" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B26" s="40"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41"/>
       <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="18.95" customHeight="1">
+    <row r="27" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="18.95" customHeight="1">
+    <row r="28" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="18.95" customHeight="1">
+    <row r="29" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="18.95" customHeight="1">
+    <row r="30" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
         <v>10</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="18.95" customHeight="1">
+    <row r="31" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
         <v>11</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="18.95" customHeight="1">
+    <row r="32" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>12</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="18.95" customHeight="1">
+    <row r="33" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="18.95" customHeight="1">
+    <row r="34" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="18.95" customHeight="1">
+    <row r="35" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26" t="s">
         <v>15</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="18.95" customHeight="1">
+    <row r="36" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="26" t="s">
         <v>16</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="18.95" customHeight="1">
+    <row r="37" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="26" t="s">
         <v>17</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="18.95" customHeight="1">
+    <row r="38" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="26" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="18.95" customHeight="1">
+    <row r="39" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>18</v>
       </c>
@@ -2024,88 +2028,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="41" spans="2:12" ht="18.95" customHeight="1"/>
-    <row r="42" spans="2:12" ht="18.95" customHeight="1">
+    <row r="40" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35" t="s">
+      <c r="D42" s="39"/>
+      <c r="E42" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35" t="s">
+      <c r="H42" s="39"/>
+      <c r="I42" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="36"/>
-    </row>
-    <row r="43" spans="2:12" s="5" customFormat="1" ht="18.95" customHeight="1">
+      <c r="J42" s="39"/>
+      <c r="K42" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="40"/>
+    </row>
+    <row r="43" spans="2:12" s="5" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="42">
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="37">
         <f>SUM(C43:J43)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="43"/>
-    </row>
-    <row r="44" spans="2:12" s="5" customFormat="1" ht="18.95" customHeight="1">
+      <c r="L43" s="38"/>
+    </row>
+    <row r="44" spans="2:12" s="5" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="42">
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37">
         <f>SUM(C44:J44)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="43"/>
-    </row>
-    <row r="45" spans="2:12" s="5" customFormat="1" ht="18.95" customHeight="1">
+      <c r="L44" s="38"/>
+    </row>
+    <row r="45" spans="2:12" s="5" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="42">
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="37">
         <f>SUM(C45:J45)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="43"/>
-    </row>
-    <row r="46" spans="2:12">
+      <c r="L45" s="38"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2118,12 +2122,12 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="2:12" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="47" spans="2:12" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -2133,15 +2137,15 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
-    <row r="48" spans="2:12" s="5" customFormat="1" ht="20.25" customHeight="1">
+    <row r="48" spans="2:12" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="39" t="str">
+      <c r="C48" s="43" t="str">
         <f>IFERROR(C47/K45,"-")</f>
         <v>-</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -2151,7 +2155,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2164,7 +2168,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2177,7 +2181,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2190,7 +2194,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>31</v>
       </c>
@@ -2205,7 +2209,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2218,47 +2222,47 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35" t="s">
+      <c r="D54" s="39"/>
+      <c r="E54" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35" t="s">
+      <c r="F54" s="39"/>
+      <c r="G54" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35" t="s">
+      <c r="H54" s="39"/>
+      <c r="I54" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35" t="s">
+      <c r="J54" s="39"/>
+      <c r="K54" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="36"/>
-    </row>
-    <row r="55" spans="2:12" s="12" customFormat="1" ht="36" customHeight="1">
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:12" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-    </row>
-    <row r="56" spans="2:12">
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2271,7 +2275,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2284,7 +2288,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -2297,7 +2301,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2310,7 +2314,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2323,7 +2327,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="2:12" hidden="1">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2336,7 +2340,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="2:12" hidden="1">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2349,7 +2353,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="2:12" hidden="1">
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2362,7 +2366,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="2:12" hidden="1">
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2375,7 +2379,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="2:12" ht="14.25" hidden="1" thickBot="1">
+    <row r="65" spans="2:12" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2388,7 +2392,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="2:12" hidden="1">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
       <c r="C66" s="6" t="s">
         <v>1</v>
@@ -2403,7 +2407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="14.25" hidden="1" thickBot="1">
+    <row r="67" spans="2:12" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="14"/>
       <c r="C67" s="16">
         <f>+D39</f>
@@ -2422,21 +2426,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:12" hidden="1">
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
     </row>
-    <row r="69" spans="2:12" hidden="1">
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
     </row>
-    <row r="70" spans="2:12" hidden="1">
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
       <c r="C70" s="20" t="str">
         <f>IFERROR(K43/K27,"-")</f>
@@ -2446,7 +2450,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="2:12" hidden="1">
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="19"/>
       <c r="C71" s="20" t="str">
         <f>IFERROR(K44/K28,"-")</f>
@@ -2456,7 +2460,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="2:12" hidden="1">
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="19"/>
       <c r="C72" s="20" t="str">
         <f>IFERROR(K45/K29,"-")</f>
@@ -2466,21 +2470,21 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="2:12" hidden="1">
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="2:12" hidden="1">
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:12" hidden="1">
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -2490,16 +2494,23 @@
   </sheetData>
   <sheetProtection password="B129" sheet="1" formatCells="0" formatRows="0"/>
   <mergeCells count="38">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:F43"/>
@@ -2511,23 +2522,16 @@
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.33" right="0.4" top="1" bottom="0.72" header="0" footer="0"/>
@@ -2538,6 +2542,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7eb654eb-a898-48bd-a039-430867fbb658" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9acf3969-3591-45ad-968d-312978ce1a87">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001906A834A0E40B4F9D009E760BCD8B44" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="66a0f0e2c2229311cebdafac884ae708">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9acf3969-3591-45ad-968d-312978ce1a87" xmlns:ns3="7eb654eb-a898-48bd-a039-430867fbb658" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0005629dfcdc59cb5411d0ddc60c3a8b" ns2:_="" ns3:_="">
     <xsd:import namespace="9acf3969-3591-45ad-968d-312978ce1a87"/>
@@ -2738,34 +2762,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7eb654eb-a898-48bd-a039-430867fbb658" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9acf3969-3591-45ad-968d-312978ce1a87">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14B3653-E464-468A-B80D-CE45D6B1B783}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64274D39-2C52-43F1-9A42-77BBD67EEECA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7eb654eb-a898-48bd-a039-430867fbb658"/>
+    <ds:schemaRef ds:uri="9acf3969-3591-45ad-968d-312978ce1a87"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED6DAF7B-512A-4AA8-966F-4D6E97C8D565}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED6DAF7B-512A-4AA8-966F-4D6E97C8D565}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64274D39-2C52-43F1-9A42-77BBD67EEECA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14B3653-E464-468A-B80D-CE45D6B1B783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9acf3969-3591-45ad-968d-312978ce1a87"/>
+    <ds:schemaRef ds:uri="7eb654eb-a898-48bd-a039-430867fbb658"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>